--- a/va_facility_data_2025-02-20/Wakeman VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wakeman%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Wakeman VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Wakeman%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rc6b7077faa9f46999911ec0fbd06a7c6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R879313ccbfba4d129a46ff4f2188f017"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rd1c9f1621ac348799311613bd0e3ef41"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R05f3ddd4a64543498c8c80233ce23580"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra8f28d34b51a46f09aa079a3d16a431d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra061220b620b4322a1fbdc711237abab"/>
   </x:sheets>
 </x:workbook>
 </file>
